--- a/NEW HR/DONE/MANLAPAZ, ROSALINDA.xlsx
+++ b/NEW HR/DONE/MANLAPAZ, ROSALINDA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>PERIOD</t>
   </si>
@@ -199,6 +199,21 @@
   </si>
   <si>
     <t>8/20-9/3/2021</t>
+  </si>
+  <si>
+    <t>SL(7-0-0)</t>
+  </si>
+  <si>
+    <t>5/3,5,8-12/2023</t>
+  </si>
+  <si>
+    <t>CTO</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>5/26,29/2023</t>
   </si>
 </sst>
 </file>
@@ -577,6 +592,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -612,9 +630,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3250,10 +3265,10 @@
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A49" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A50" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3275,60 +3290,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3354,18 +3371,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3412,7 +3429,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>38.75</v>
+        <v>40.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3422,7 +3439,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>52.75</v>
+        <v>49.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3527,7 +3544,7 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="61">
+      <c r="K14" s="49">
         <v>43766</v>
       </c>
     </row>
@@ -3629,7 +3646,7 @@
       <c r="H19" s="39"/>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="61">
+      <c r="K19" s="49">
         <v>43874</v>
       </c>
     </row>
@@ -4404,15 +4421,19 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
+      <c r="A58" s="40">
+        <v>44958</v>
+      </c>
       <c r="B58" s="20"/>
-      <c r="C58" s="13"/>
+      <c r="C58" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D58" s="39"/>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G58" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H58" s="39"/>
       <c r="I58" s="9"/>
@@ -4420,15 +4441,19 @@
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
+      <c r="A59" s="40">
+        <v>44986</v>
+      </c>
       <c r="B59" s="20"/>
-      <c r="C59" s="13"/>
+      <c r="C59" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D59" s="39"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G59" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
@@ -4436,15 +4461,19 @@
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
+      <c r="A60" s="40">
+        <v>45017</v>
+      </c>
       <c r="B60" s="20"/>
-      <c r="C60" s="13"/>
+      <c r="C60" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D60" s="39"/>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G60" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
@@ -4452,8 +4481,12 @@
       <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
@@ -4462,16 +4495,24 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H61" s="39"/>
+      <c r="H61" s="39">
+        <v>7</v>
+      </c>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
+      <c r="K61" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C62" s="13"/>
-      <c r="D62" s="39"/>
+      <c r="D62" s="39">
+        <v>2</v>
+      </c>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
       <c r="G62" s="13" t="str">
@@ -4481,7 +4522,9 @@
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20"/>
+      <c r="K62" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
@@ -5378,8 +5421,8 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A7" activePane="bottomLeft"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A3" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
@@ -5403,71 +5446,71 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>MANLAPAZ, ROSALINDA</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49" t="str">
+      <c r="B3" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53" t="str">
+      <c r="F3" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="str">
+      <c r="B4" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="54"/>
+        <v>CTO</v>
+      </c>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5493,18 +5536,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7570,17 +7613,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -7655,12 +7698,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/NEW HR/DONE/MANLAPAZ, ROSALINDA.xlsx
+++ b/NEW HR/DONE/MANLAPAZ, ROSALINDA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>PERIOD</t>
   </si>
@@ -598,6 +598,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -610,20 +619,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1320,7 +1320,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1363,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1427,7 +1427,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1487,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1553,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1616,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1714,7 +1714,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1773,7 +1773,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1838,7 +1838,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1881,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,7 +1956,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2142,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2208,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2266,7 +2266,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2332,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2388,7 +2388,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2463,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2506,7 +2506,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2572,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,7 +2628,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2726,7 +2726,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2789,7 +2789,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3266,9 +3266,9 @@
   <dimension ref="A2:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A50" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A56" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3298,14 +3298,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3316,14 +3316,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3336,16 +3336,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3371,18 +3371,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3429,7 +3429,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>40.5</v>
+        <v>43</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3439,7 +3439,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>49.5</v>
+        <v>51</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4527,15 +4527,19 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+      <c r="A63" s="40">
+        <v>45078</v>
+      </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="13"/>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
@@ -4543,20 +4547,30 @@
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="13"/>
+      <c r="A64" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H64" s="39"/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H64" s="39">
+        <v>1</v>
+      </c>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="49">
+        <v>45128</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
@@ -5376,17 +5390,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5455,14 +5469,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5476,17 +5490,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54" t="str">
+      <c r="F3" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5500,17 +5514,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>CTO</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5536,18 +5550,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
